--- a/HFBugs Collection/HFBs.xlsx
+++ b/HFBugs Collection/HFBs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shin/Desktop/bsps5/wycheproof-C/HFBugs Collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BE1D40B-19A4-8F4C-866B-9B45E4C7C0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A39732-B88E-3240-B7B0-D1C1B5188DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7060" yWindow="-19600" windowWidth="26700" windowHeight="18920" xr2:uid="{4B1A61C5-9C10-EB41-895A-6528177FA80A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="185">
   <si>
     <t>ID</t>
   </si>
@@ -599,12 +599,27 @@
   <si>
     <t>ECDSA in ARM hw accelerator</t>
   </si>
+  <si>
+    <t>CVE-2020-1968</t>
+  </si>
+  <si>
+    <t>priv key exposure</t>
+  </si>
+  <si>
+    <t>CVE-2021-3449</t>
+  </si>
+  <si>
+    <t>TLS renegotiation</t>
+  </si>
+  <si>
+    <t>DoS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -625,6 +640,19 @@
       <color rgb="FFCE9178"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -647,9 +675,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6BEE80-5584-2E45-BBC9-73185583DF3E}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1001,37 +1030,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2785,7 +2814,79 @@
         <v>60</v>
       </c>
     </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" t="s">
+        <v>181</v>
+      </c>
+      <c r="H52">
+        <v>3.7</v>
+      </c>
+      <c r="I52" t="s">
+        <v>62</v>
+      </c>
+      <c r="J52" t="s">
+        <v>61</v>
+      </c>
+      <c r="K52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" t="s">
+        <v>184</v>
+      </c>
+      <c r="H53">
+        <v>5.9</v>
+      </c>
+      <c r="I53" t="s">
+        <v>62</v>
+      </c>
+      <c r="J53" t="s">
+        <v>61</v>
+      </c>
+      <c r="K53" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>